--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,24 +49,24 @@
     <t>poor</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
@@ -76,18 +76,24 @@
     <t>plastic</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
@@ -100,10 +106,13 @@
     <t>would</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>money</t>
+    <t>better</t>
   </si>
   <si>
     <t>product</t>
@@ -112,15 +121,15 @@
     <t>work</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -154,12 +163,12 @@
     <t>loved</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
@@ -173,6 +182,9 @@
   </si>
   <si>
     <t>game</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -533,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -652,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +682,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>0.8923076923076924</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7464788732394366</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +732,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.8064516129032258</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="L5">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M5">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7150537634408602</v>
+        <v>0.71875</v>
       </c>
       <c r="C6">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>0.734375</v>
+        <v>0.8125</v>
       </c>
       <c r="L6">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M6">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.703125</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>0.6792452830188679</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +864,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6470588235294118</v>
+        <v>0.6081081081081081</v>
       </c>
       <c r="C8">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D8">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.5738880918220947</v>
+        <v>0.5523672883787661</v>
       </c>
       <c r="L8">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="M8">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +914,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6456310679611651</v>
+        <v>0.6067961165048543</v>
       </c>
       <c r="C9">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D9">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.5652173913043478</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -952,13 +964,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6148648648648649</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -970,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.4937759336099585</v>
+        <v>0.4730290456431535</v>
       </c>
       <c r="L10">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="M10">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1002,13 +1014,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5636363636363636</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1020,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.4540983606557377</v>
+        <v>0.4631147540983607</v>
       </c>
       <c r="L11">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="M11">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1044,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>666</v>
+        <v>655</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1052,13 +1064,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4956521739130435</v>
+        <v>0.4811594202898551</v>
       </c>
       <c r="C12">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D12">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1070,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.3608562691131498</v>
+        <v>0.3516819571865443</v>
       </c>
       <c r="L12">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M12">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1094,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1102,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4216867469879518</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1120,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>0.3166666666666667</v>
+        <v>0.3373493975903614</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1144,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1152,37 +1164,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3937007874015748</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C14">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <v>51</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>76</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D14">
-        <v>50</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>77</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="K14">
-        <v>0.3132530120481928</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="L14">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1194,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1202,13 +1214,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3696682464454976</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C15">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1220,19 +1232,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.3121693121693122</v>
+        <v>0.291005291005291</v>
       </c>
       <c r="L15">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M15">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1244,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1252,13 +1264,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3684210526315789</v>
+        <v>0.3744075829383886</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1270,19 +1282,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.1881720430107527</v>
+        <v>0.1989247311827957</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1294,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1302,13 +1314,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.296875</v>
+        <v>0.3515625</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D17">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1320,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.176706827309237</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1344,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1352,13 +1364,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2920792079207921</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C18">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1370,31 +1382,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>0.1553994732221247</v>
+        <v>0.1489921121822962</v>
       </c>
       <c r="L18">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="M18">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>962</v>
+        <v>971</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1402,13 +1414,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2525773195876289</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="C19">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D19">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1420,31 +1432,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.07147498375568551</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="L19">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N19">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O19">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1452,13 +1464,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.18</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C20">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1470,7 +1482,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>164</v>
+        <v>88</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20">
+        <v>0.0426098535286285</v>
+      </c>
+      <c r="L20">
+        <v>32</v>
+      </c>
+      <c r="M20">
+        <v>33</v>
+      </c>
+      <c r="N20">
+        <v>0.97</v>
+      </c>
+      <c r="O20">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>719</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1478,13 +1514,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.177536231884058</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C21">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D21">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1496,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>227</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1504,13 +1540,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1691394658753709</v>
+        <v>0.175</v>
       </c>
       <c r="C22">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1522,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>560</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1530,25 +1566,25 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1556195965417868</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="C23">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D23">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E23">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>293</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1556,13 +1592,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1424050632911392</v>
+        <v>0.1587537091988131</v>
       </c>
       <c r="C24">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1574,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>271</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1582,13 +1618,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.105726872246696</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C25">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D25">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1600,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>406</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1608,13 +1644,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.09177215189873418</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D26">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1626,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1634,25 +1670,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.06446280991735537</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C27">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E27">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>566</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1660,25 +1696,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04447852760736196</v>
+        <v>0.1409691629955947</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D28">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E28">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>623</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1686,25 +1722,103 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03929024081115336</v>
+        <v>0.1265822784810127</v>
       </c>
       <c r="C29">
+        <v>40</v>
+      </c>
+      <c r="D29">
+        <v>40</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.08258928571428571</v>
+      </c>
+      <c r="C30">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>38</v>
+      </c>
+      <c r="E30">
+        <v>0.03</v>
+      </c>
+      <c r="F30">
+        <v>0.97</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.05766062602965404</v>
+      </c>
+      <c r="C31">
+        <v>35</v>
+      </c>
+      <c r="D31">
+        <v>36</v>
+      </c>
+      <c r="E31">
+        <v>0.03</v>
+      </c>
+      <c r="F31">
+        <v>0.97</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="C32">
         <v>31</v>
       </c>
-      <c r="D29">
-        <v>36</v>
-      </c>
-      <c r="E29">
-        <v>0.14</v>
-      </c>
-      <c r="F29">
-        <v>0.86</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>758</v>
+      <c r="D32">
+        <v>35</v>
+      </c>
+      <c r="E32">
+        <v>0.11</v>
+      </c>
+      <c r="F32">
+        <v>0.89</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>620</v>
       </c>
     </row>
   </sheetData>
